--- a/biology/Médecine/Entorse_de_Lisfranc/Entorse_de_Lisfranc.xlsx
+++ b/biology/Médecine/Entorse_de_Lisfranc/Entorse_de_Lisfranc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une entorse de Lisfranc, également connue sous le nom de fracture-luxation de Lisfranc, est une blessure du pied dans laquelle un ou plusieurs métatarses sont déplacés par rapport aux os du tarse[1],[2]. 
-La blessure porte le nom de Jacques Lisfranc de Saint-Martin (2 avril 1790  –  13 mai 1847), un chirurgien et gynécologue Français qui mit au point, en 1815, un type d'amputation passant par l'articulation tarso-métatarsienne chez les soldats souffrant d'engelures aux pieds durant la guerre de la Sixième Coalition[3],[4]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une entorse de Lisfranc, également connue sous le nom de fracture-luxation de Lisfranc, est une blessure du pied dans laquelle un ou plusieurs métatarses sont déplacés par rapport aux os du tarse,. 
+La blessure porte le nom de Jacques Lisfranc de Saint-Martin (2 avril 1790  –  13 mai 1847), un chirurgien et gynécologue Français qui mit au point, en 1815, un type d'amputation passant par l'articulation tarso-métatarsienne chez les soldats souffrant d'engelures aux pieds durant la guerre de la Sixième Coalition,. 
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le milieu du pied se compose des cinq os qui forment les arcades du pied (le cuboïde, le naviculaire et les trois os cunéiformes) et de leurs articulations avec la base des cinq métatarses. Ces articulations sont endommagées dans l'entorse de Lisfranc. De telles blessures impliquent généralement les ligaments entre l'os cunéiforme médial et les bases des deuxième et troisième métatarses[5].
-Les entorses de Lisfranc surviennent lorsqu'une force excessive est appliquée directement ou indirectement au milieu du pied et sont souvent observées lors de collisions de la route (le pied écrasant la pédale du frein), d'accidents sportifs ou de travail[3],[6]. 
-Les entorses traumatiques de Lisfranc sont généralement causées par une blessure par écrasement, comme un objet lourd tombant sur le milieu du pied, le pied se faisant écraser par une voiture ou un camion, ou à la suite d'une chute d'une hauteur importante[7]. Les blessures indirectes de Lisfranc sont causées par une force de rotation soudaine sur un avant-pied en flexion plantaire (pointant vers le bas)[6]. Par exemple, un cavalier tombant d'un cheval mais le pied restant coincé dans l'étrier ou un travailleur chutant avec le pied coincé dans une échelle[3].  
-Dans les traumatismes sportifs, les blessures de Lisfranc surviennent fréquemment dans des activités telles que la planche à voile, le kitesurf, le wakeboard ou la planche à neige (où les fixations s'attachent directement au-dessus des métatarsiens)[8]. Dans les sports de contact, cela se produit le plus souvent lorsque le pied de l'athlète est en flexion plantaire et qu'un autre joueur lui tombe sur le talon. Une rotation au niveau de l'avant-pied dans des sports comme le ballet peut aussi causer de telles blessures.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le milieu du pied se compose des cinq os qui forment les arcades du pied (le cuboïde, le naviculaire et les trois os cunéiformes) et de leurs articulations avec la base des cinq métatarses. Ces articulations sont endommagées dans l'entorse de Lisfranc. De telles blessures impliquent généralement les ligaments entre l'os cunéiforme médial et les bases des deuxième et troisième métatarses.
+Les entorses de Lisfranc surviennent lorsqu'une force excessive est appliquée directement ou indirectement au milieu du pied et sont souvent observées lors de collisions de la route (le pied écrasant la pédale du frein), d'accidents sportifs ou de travail,. 
+Les entorses traumatiques de Lisfranc sont généralement causées par une blessure par écrasement, comme un objet lourd tombant sur le milieu du pied, le pied se faisant écraser par une voiture ou un camion, ou à la suite d'une chute d'une hauteur importante. Les blessures indirectes de Lisfranc sont causées par une force de rotation soudaine sur un avant-pied en flexion plantaire (pointant vers le bas). Par exemple, un cavalier tombant d'un cheval mais le pied restant coincé dans l'étrier ou un travailleur chutant avec le pied coincé dans une échelle.  
+Dans les traumatismes sportifs, les blessures de Lisfranc surviennent fréquemment dans des activités telles que la planche à voile, le kitesurf, le wakeboard ou la planche à neige (où les fixations s'attachent directement au-dessus des métatarsiens). Dans les sports de contact, cela se produit le plus souvent lorsque le pied de l'athlète est en flexion plantaire et qu'un autre joueur lui tombe sur le talon. Une rotation au niveau de l'avant-pied dans des sports comme le ballet peut aussi causer de telles blessures.
 </t>
         </is>
       </c>
@@ -546,16 +560,14 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Lors d'une blessure traumatique à haute vélocité au milieu du pied, le diagnostic d'une entorse de Lisfranc doit être évoqué. Face à une telle blessure, la suspicion clinique doit être élevée. Dans certains cas, on peut noter à l'examen physique une plaie sus-jacente et une compromission de l'apport sanguin au pied distal. On note une déformation du milieu du pied et des anomalies évidentes à la radiographie. La trouvaille radiographique classique est un espace entre la base des premier et deuxième orteils[9].   
-Le diagnostic est plus difficile dans le cas de traumatismes à faible énergie, notamment dans les sports. À l'histoire, le patient peut se présenter seulement avec un inconfort à la mise en charge et un léger gonflement de l'avant-pied ou du milieu du pied. Des ecchymoses de la voûte plantaire ont été décrites comme diagnostiques dans ces circonstances mais pourraient bien être absentes[10]. En règle générale, la radiographie conventionnelle du pied est utilisée avec des vues standard sans mise en charge, complétées par des vues avec mise en charge, qui peuvent démontrer un élargissement de l'intervalle entre les bases du premier et deuxième orteils lorsque les vues initiales ne montrent pas d'anomalie. Les radiographies dans de telles circonstances ont une sensibilité de 50% sans mise en charge et de 85% avec mise en charge[11]. 
-Dans le cas de radiographies apparemment normales et persistence de la suspicion clinique persiste, une imagerie par résonance magnétique (IRM) ou une tomodensitométrie (TDM) est indiquée[12]. 
-Classification
-L'entorse peut être classifiée de trois façons[13] :
-homolatérale : les cinq métatarsiens sont déplacés dans la même direction. Le déplacement latéral peut également suggérer une fracture cuboïdale ;
-isolée : un ou deux métatarsiens sont déplacés des autres ;
-divergents : les métatarsiens sont déplacés dans un plan sagittal ou coronaire et peuvent également impliquer la zone intercunéiforme et inclure une fracture naviculaire.</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors d'une blessure traumatique à haute vélocité au milieu du pied, le diagnostic d'une entorse de Lisfranc doit être évoqué. Face à une telle blessure, la suspicion clinique doit être élevée. Dans certains cas, on peut noter à l'examen physique une plaie sus-jacente et une compromission de l'apport sanguin au pied distal. On note une déformation du milieu du pied et des anomalies évidentes à la radiographie. La trouvaille radiographique classique est un espace entre la base des premier et deuxième orteils.   
+Le diagnostic est plus difficile dans le cas de traumatismes à faible énergie, notamment dans les sports. À l'histoire, le patient peut se présenter seulement avec un inconfort à la mise en charge et un léger gonflement de l'avant-pied ou du milieu du pied. Des ecchymoses de la voûte plantaire ont été décrites comme diagnostiques dans ces circonstances mais pourraient bien être absentes. En règle générale, la radiographie conventionnelle du pied est utilisée avec des vues standard sans mise en charge, complétées par des vues avec mise en charge, qui peuvent démontrer un élargissement de l'intervalle entre les bases du premier et deuxième orteils lorsque les vues initiales ne montrent pas d'anomalie. Les radiographies dans de telles circonstances ont une sensibilité de 50% sans mise en charge et de 85% avec mise en charge. 
+Dans le cas de radiographies apparemment normales et persistence de la suspicion clinique persiste, une imagerie par résonance magnétique (IRM) ou une tomodensitométrie (TDM) est indiquée. 
+</t>
         </is>
       </c>
     </row>
@@ -580,15 +592,56 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'entorse peut être classifiée de trois façons :
+homolatérale : les cinq métatarsiens sont déplacés dans la même direction. Le déplacement latéral peut également suggérer une fracture cuboïdale ;
+isolée : un ou deux métatarsiens sont déplacés des autres ;
+divergents : les métatarsiens sont déplacés dans un plan sagittal ou coronaire et peuvent également impliquer la zone intercunéiforme et inclure une fracture naviculaire.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Entorse_de_Lisfranc</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Entorse_de_Lisfranc</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les options incluent un traitement opératoire ou non opératoire. Chez les athlètes, et si la luxation est inférieure à 2 mm, la fracture peut être gérée par immobilisation sans mise en charge pendant six semaines[14]. Si la douleur persiste, une botte de marche pour 4 semaines supplémentaires est indiquée. 
-Dans la majorité des cas, une réduction anatomique précoce et une fixation sont indiquées[15]. La réduction fermée et la stabilisation interne par un fil de Kirschner (fil K) est indiquée dans les entorses sans fractures adjacentes.   
-Dans les cas d'entorse de Lisfranc avec fracture concomitante des métatarses ou des cunéiformes, une réparation avec plaque dorsale et vis de Lisfranc est préférée. Le patient est mis dans un plâtre pour 2-3 semaines puis dans une botte de marche sans mise en charge pour 4-6 semaines supplémentaires. Le matériel n'est pas retiré d'emblée. Le retour au sport débute généralement 8-12 mois après l'opération[14].
-Lorsqu'une lésion de Lisfranc avec déplacement important est traitée de façon non-opératoire, cela conduit souvent à une perte fonctionnelle sévère et à une invalidité de longue durée secondaire à une douleur chronique et parfois à une déformation en planus valgus. En cas de douleur intense, de perte de fonction ou de déformation progressive qui n'a pas répondu au traitement non opératoire, une arthrodèse mi-tarse et tarsométatarsienne (fusion opératoire des os) peut être indiquée[16].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les options incluent un traitement opératoire ou non opératoire. Chez les athlètes, et si la luxation est inférieure à 2 mm, la fracture peut être gérée par immobilisation sans mise en charge pendant six semaines. Si la douleur persiste, une botte de marche pour 4 semaines supplémentaires est indiquée. 
+Dans la majorité des cas, une réduction anatomique précoce et une fixation sont indiquées. La réduction fermée et la stabilisation interne par un fil de Kirschner (fil K) est indiquée dans les entorses sans fractures adjacentes.   
+Dans les cas d'entorse de Lisfranc avec fracture concomitante des métatarses ou des cunéiformes, une réparation avec plaque dorsale et vis de Lisfranc est préférée. Le patient est mis dans un plâtre pour 2-3 semaines puis dans une botte de marche sans mise en charge pour 4-6 semaines supplémentaires. Le matériel n'est pas retiré d'emblée. Le retour au sport débute généralement 8-12 mois après l'opération.
+Lorsqu'une lésion de Lisfranc avec déplacement important est traitée de façon non-opératoire, cela conduit souvent à une perte fonctionnelle sévère et à une invalidité de longue durée secondaire à une douleur chronique et parfois à une déformation en planus valgus. En cas de douleur intense, de perte de fonction ou de déformation progressive qui n'a pas répondu au traitement non opératoire, une arthrodèse mi-tarse et tarsométatarsienne (fusion opératoire des os) peut être indiquée.
 </t>
         </is>
       </c>
